--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/PayOrder.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/PayOrder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Case</t>
   </si>
@@ -54,6 +54,72 @@
   </si>
   <si>
     <t>As a user I want to verify Pay Order Request</t>
+  </si>
+  <si>
+    <t>success_message</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>tran_amount_query</t>
+  </si>
+  <si>
+    <t>from_account_query</t>
+  </si>
+  <si>
+    <t>tran_branch_query</t>
+  </si>
+  <si>
+    <t>tran_branch_code_query</t>
+  </si>
+  <si>
+    <t>tran_purpose_query</t>
+  </si>
+  <si>
+    <t>tran_date_query</t>
+  </si>
+  <si>
+    <t>580052365603</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>YASIRBENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Card Payment  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karachi </t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>Your request has been processed successfully. Please visit your branch with the Reference Number to collect the Pay Order/Bankers Cheque.</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.FROM_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.TO_BRANCH FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.BRANCH_CODE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.PURPOSE_OF_PAYMENT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
 </sst>
 </file>
@@ -89,8 +155,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,52 +438,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="129.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="80.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="86.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="80.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/PayOrder.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/PayOrder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="65">
   <si>
     <t>Case</t>
   </si>
@@ -53,9 +54,6 @@
     <t>pakistan2</t>
   </si>
   <si>
-    <t>As a user I want to verify Pay Order Request</t>
-  </si>
-  <si>
     <t>success_message</t>
   </si>
   <si>
@@ -80,24 +78,12 @@
     <t>tran_date_query</t>
   </si>
   <si>
-    <t>580052365603</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>YASIRBENE</t>
   </si>
   <si>
     <t xml:space="preserve">Credit Card Payment  </t>
   </si>
   <si>
-    <t xml:space="preserve">Karachi </t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
     <t>Your request has been processed successfully. Please visit your branch with the Reference Number to collect the Pay Order/Bankers Cheque.</t>
   </si>
   <si>
@@ -120,6 +106,120 @@
   </si>
   <si>
     <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>06947900309303</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>500.50</t>
+  </si>
+  <si>
+    <t>170000</t>
+  </si>
+  <si>
+    <t>asdf547689437694303@!##@$</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>Educational</t>
+  </si>
+  <si>
+    <t>pakistan22</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>asd32sdijhf87wqey78ryq987wrweuhfawe87fyiuasdhfiusd</t>
+  </si>
+  <si>
+    <t>5560.50</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
+  </si>
+  <si>
+    <t>Attock</t>
+  </si>
+  <si>
+    <t>asd32sdijhf87wqey78ryq987wrweuhfawe87fyiuasdhfiusdend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
+    <t>REHAN2222</t>
+  </si>
+  <si>
+    <t>06947944409333</t>
+  </si>
+  <si>
+    <t>As a user when FCY ACC is selected Pay_Order_FCY</t>
+  </si>
+  <si>
+    <t>As a user I want to verify Pay Order Request Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when 0 amount is entered Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when amount exceeds the allowed limit Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when bene name contains special characters Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when purpose is Educational Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when invalid city is selected Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when invalid branch is selected Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when invalid Transaction Password is selected Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when NULL amount is entered Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when city isn't selected Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when branch isn't selected Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when Transaction Pass isn't entered Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when PURPOSE isnt' selected Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when Full length Bene is entered Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>User enter the Beneficiary name greater than the full length Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>User not select the account or Account not fetched in CRI Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>As a user when invalid from acc Pay_Order_Normal</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>AL-BADAR SQUARE, KARACHI | 1101</t>
+  </si>
+  <si>
+    <t>FATEHJANG | 1171</t>
   </si>
 </sst>
 </file>
@@ -438,21 +538,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:XFD1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="129.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -489,78 +589,937 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
